--- a/_posts/excel/kim-university.xlsx
+++ b/_posts/excel/kim-university.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44FDC3C-469E-4457-B71A-A34EC5D2F604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F10A1-2DA9-48E2-8794-C01A8DEC0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="参考大学" sheetId="2" r:id="rId1"/>
+    <sheet name="amc" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">参考大学!$A$1:$D$21</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>多伦多大学</t>
   </si>
@@ -227,6 +228,108 @@
   </si>
   <si>
     <t>达尔豪斯大学（新省）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛年级和年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计分方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名和考试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMC 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMC 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMC 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8年级以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年级以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12年级以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25道选择题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15道数学题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分25分
+答对一题1分
+答错一题0分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">满分150
+答对一题6分
+未答得1.5分
+答错得0分
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分150
+答对一题6分
+未答得1.5分
+答错得0分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分15分
+答对一题得一分
+答错得0分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年11月份报名</t>
+  </si>
+  <si>
+    <t>每年11月份报名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +439,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798561A1-ED24-40FD-85CD-267034A7F5CF}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1081,4 +1187,126 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E866-C95F-4ADD-9B83-0C2F469A0075}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_posts/excel/kim-university.xlsx
+++ b/_posts/excel/kim-university.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F10A1-2DA9-48E2-8794-C01A8DEC0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D885394-C385-4CEE-8019-3EFCFE33B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="参考大学" sheetId="2" r:id="rId1"/>
     <sheet name="amc" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">参考大学!$A$1:$D$21</definedName>
@@ -434,14 +435,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +824,7 @@
       <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4">
@@ -843,7 +844,7 @@
       <c r="D3" s="1">
         <v>21</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="4">
         <v>34</v>
       </c>
@@ -861,7 +862,7 @@
       <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="4">
         <v>112</v>
       </c>
@@ -879,7 +880,7 @@
       <c r="D5" s="1">
         <v>34</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="4">
         <v>53</v>
       </c>
@@ -897,7 +898,7 @@
       <c r="D6" s="1">
         <v>34</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="4">
         <v>30</v>
       </c>
@@ -915,7 +916,7 @@
       <c r="D7" s="1">
         <v>41</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="4">
         <v>14</v>
       </c>
@@ -933,7 +934,7 @@
       <c r="D8" s="1">
         <v>54</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="3">
@@ -953,7 +954,7 @@
       <c r="D9" s="1">
         <v>56</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3">
         <v>34</v>
       </c>
@@ -971,7 +972,7 @@
       <c r="D10" s="1">
         <v>57</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3">
         <v>19</v>
       </c>
@@ -989,7 +990,7 @@
       <c r="D11" s="1">
         <v>57</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3">
         <v>19</v>
       </c>
@@ -1007,7 +1008,7 @@
       <c r="D12" s="1">
         <v>69</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3">
         <v>124</v>
       </c>
@@ -1025,7 +1026,7 @@
       <c r="D13" s="1">
         <v>73</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3">
         <v>90</v>
       </c>
@@ -1043,7 +1044,7 @@
       <c r="D14" s="1">
         <v>73</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="3">
         <v>42</v>
       </c>
@@ -1061,7 +1062,7 @@
       <c r="D15" s="1">
         <v>91</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3">
         <v>81</v>
       </c>
@@ -1194,7 +1195,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1275,16 +1276,16 @@
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1309,4 +1310,23 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9790F3-5E95-4F29-8F86-BD4535BFD8DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_posts/excel/kim-university.xlsx
+++ b/_posts/excel/kim-university.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D885394-C385-4CEE-8019-3EFCFE33B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4A95D-2691-40F9-8C7E-46440137C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="参考大学" sheetId="2" r:id="rId1"/>
     <sheet name="amc" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="ap" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">参考大学!$A$1:$D$21</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>多伦多大学</t>
   </si>
@@ -333,12 +333,174 @@
     <t>每年11月份报名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>历史与社会科学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数学与计算机科学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然科学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>世界语言与文学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顶石文凭项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +515,26 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -413,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E866-C95F-4ADD-9B83-0C2F469A0075}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1314,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9790F3-5E95-4F29-8F86-BD4535BFD8DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1510,72 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_posts/excel/kim-university.xlsx
+++ b/_posts/excel/kim-university.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\shake.github.io\_posts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4A95D-2691-40F9-8C7E-46440137C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FC547-B124-4794-A694-0C40D662DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{E411A656-D868-4DA8-AC1E-EE93DB4E7E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="参考大学" sheetId="2" r:id="rId1"/>
     <sheet name="amc" sheetId="3" r:id="rId2"/>
     <sheet name="ap" sheetId="4" r:id="rId3"/>
+    <sheet name="nis" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">参考大学!$A$1:$D$21</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>多伦多大学</t>
   </si>
@@ -493,6 +494,22 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,14 +637,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,7 +1026,7 @@
       <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4">
@@ -1029,7 +1046,7 @@
       <c r="D3" s="1">
         <v>21</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="4">
         <v>34</v>
       </c>
@@ -1047,7 +1064,7 @@
       <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="4">
         <v>112</v>
       </c>
@@ -1065,7 +1082,7 @@
       <c r="D5" s="1">
         <v>34</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="4">
         <v>53</v>
       </c>
@@ -1083,7 +1100,7 @@
       <c r="D6" s="1">
         <v>34</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="4">
         <v>30</v>
       </c>
@@ -1101,7 +1118,7 @@
       <c r="D7" s="1">
         <v>41</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="4">
         <v>14</v>
       </c>
@@ -1119,7 +1136,7 @@
       <c r="D8" s="1">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="3">
@@ -1139,7 +1156,7 @@
       <c r="D9" s="1">
         <v>56</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="3">
         <v>34</v>
       </c>
@@ -1157,7 +1174,7 @@
       <c r="D10" s="1">
         <v>57</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="3">
         <v>19</v>
       </c>
@@ -1175,7 +1192,7 @@
       <c r="D11" s="1">
         <v>57</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="3">
         <v>19</v>
       </c>
@@ -1193,7 +1210,7 @@
       <c r="D12" s="1">
         <v>69</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3">
         <v>124</v>
       </c>
@@ -1211,7 +1228,7 @@
       <c r="D13" s="1">
         <v>73</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="3">
         <v>90</v>
       </c>
@@ -1229,7 +1246,7 @@
       <c r="D14" s="1">
         <v>73</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3">
         <v>42</v>
       </c>
@@ -1247,7 +1264,7 @@
       <c r="D15" s="1">
         <v>91</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="3">
         <v>81</v>
       </c>
@@ -1501,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9790F3-5E95-4F29-8F86-BD4535BFD8DE}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1520,7 +1537,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B2">
@@ -1528,7 +1545,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B3">
@@ -1536,7 +1553,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B4">
@@ -1544,7 +1561,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B5">
@@ -1552,7 +1569,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B6">
@@ -1560,7 +1577,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B7">
@@ -1568,11 +1585,100 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B8">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A3BCBC-C028-4A5D-BBFF-4586773A882D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
